--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_TAX_05-2_税金参照コードの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_TAX_05-2_税金参照コードの管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20102直営店対応\20_成果物\BR100\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -966,7 +966,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="157">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -1524,10 +1524,6 @@
   <si>
     <t>9810</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2024/05/01</t>
-    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>2024/05/01</t>
@@ -1741,12 +1737,51 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2024/08/01</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>9708</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9710</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>変動対価課税仕入８％（IFS）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>変動対価課税仕入10％（IFS）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>変動対価課税仕入８％（IFS）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>E_本稼動_20102対応 直営店対応
+伊藤園フードサービスの収益認識部門入力用の税金コード9708、9710を追加</t>
+    <rPh sb="14" eb="19">
+      <t>チョクエイテンタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2354,7 +2389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2469,6 +2504,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2505,6 +2557,27 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2526,6 +2599,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="16" fillId="3" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2543,38 +2625,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2632,23 +2682,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3022,7 +3055,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10302,1164 +10335,1172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:AK10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="8" width="2.6640625" style="28" customWidth="1"/>
     <col min="9" max="9" width="2.77734375" style="28" customWidth="1"/>
     <col min="10" max="16384" width="2.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A2" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="48" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="52"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="53">
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="61"/>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="62">
         <v>44936</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="55"/>
-    </row>
-    <row r="4" spans="1:37" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="60">
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="64"/>
+    </row>
+    <row r="4" spans="1:37" ht="24.75" customHeight="1">
+      <c r="A4" s="69">
         <v>45351</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="62"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="75"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="84"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="87"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="87"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="95"/>
-      <c r="AJ9" s="95"/>
-      <c r="AK9" s="96"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="87"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="97"/>
-      <c r="AJ11" s="97"/>
-      <c r="AK11" s="98"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="98"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="98"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="98"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="98"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="98"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="97"/>
-      <c r="AH17" s="97"/>
-      <c r="AI17" s="97"/>
-      <c r="AJ17" s="97"/>
-      <c r="AK17" s="98"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="97"/>
-      <c r="AI18" s="97"/>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="98"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="97"/>
-      <c r="AH19" s="97"/>
-      <c r="AI19" s="97"/>
-      <c r="AJ19" s="97"/>
-      <c r="AK19" s="98"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="97"/>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="98"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="97"/>
-      <c r="AI21" s="97"/>
-      <c r="AJ21" s="97"/>
-      <c r="AK21" s="98"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="97"/>
-      <c r="AH22" s="97"/>
-      <c r="AI22" s="97"/>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="98"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="97"/>
-      <c r="AH23" s="97"/>
-      <c r="AI23" s="97"/>
-      <c r="AJ23" s="97"/>
-      <c r="AK23" s="98"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="97"/>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="97"/>
-      <c r="AH24" s="97"/>
-      <c r="AI24" s="97"/>
-      <c r="AJ24" s="97"/>
-      <c r="AK24" s="98"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="97"/>
-      <c r="AH25" s="97"/>
-      <c r="AI25" s="97"/>
-      <c r="AJ25" s="97"/>
-      <c r="AK25" s="98"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="97"/>
-      <c r="AH26" s="97"/>
-      <c r="AI26" s="97"/>
-      <c r="AJ26" s="97"/>
-      <c r="AK26" s="98"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="97"/>
-      <c r="AG27" s="97"/>
-      <c r="AH27" s="97"/>
-      <c r="AI27" s="97"/>
-      <c r="AJ27" s="97"/>
-      <c r="AK27" s="98"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="97"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="97"/>
-      <c r="AH28" s="97"/>
-      <c r="AI28" s="97"/>
-      <c r="AJ28" s="97"/>
-      <c r="AK28" s="98"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="97"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="97"/>
-      <c r="AH29" s="97"/>
-      <c r="AI29" s="97"/>
-      <c r="AJ29" s="97"/>
-      <c r="AK29" s="98"/>
-    </row>
-    <row r="30" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="102"/>
-      <c r="AE30" s="102"/>
-      <c r="AF30" s="102"/>
-      <c r="AG30" s="102"/>
-      <c r="AH30" s="102"/>
-      <c r="AI30" s="102"/>
-      <c r="AJ30" s="102"/>
-      <c r="AK30" s="103"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="71"/>
+    </row>
+    <row r="5" spans="1:37" ht="21.75" customHeight="1">
+      <c r="A5" s="76">
+        <v>45485</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="78"/>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="85"/>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="94"/>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="94"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="103"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="94"/>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="104"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="104"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="104"/>
+      <c r="AJ11" s="104"/>
+      <c r="AK11" s="105"/>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="104"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="105"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="104"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="105"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="105"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="89"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="104"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="105"/>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="104"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="105"/>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="89"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="105"/>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="105"/>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="104"/>
+      <c r="AI19" s="104"/>
+      <c r="AJ19" s="104"/>
+      <c r="AK19" s="105"/>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="104"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="105"/>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="104"/>
+      <c r="AF21" s="104"/>
+      <c r="AG21" s="104"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="104"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="105"/>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="104"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="104"/>
+      <c r="AJ22" s="104"/>
+      <c r="AK22" s="105"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="89"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="104"/>
+      <c r="AG23" s="104"/>
+      <c r="AH23" s="104"/>
+      <c r="AI23" s="104"/>
+      <c r="AJ23" s="104"/>
+      <c r="AK23" s="105"/>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="89"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="104"/>
+      <c r="AF24" s="104"/>
+      <c r="AG24" s="104"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="104"/>
+      <c r="AJ24" s="104"/>
+      <c r="AK24" s="105"/>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="104"/>
+      <c r="AF25" s="104"/>
+      <c r="AG25" s="104"/>
+      <c r="AH25" s="104"/>
+      <c r="AI25" s="104"/>
+      <c r="AJ25" s="104"/>
+      <c r="AK25" s="105"/>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="89"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="104"/>
+      <c r="AF26" s="104"/>
+      <c r="AG26" s="104"/>
+      <c r="AH26" s="104"/>
+      <c r="AI26" s="104"/>
+      <c r="AJ26" s="104"/>
+      <c r="AK26" s="105"/>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="104"/>
+      <c r="AF27" s="104"/>
+      <c r="AG27" s="104"/>
+      <c r="AH27" s="104"/>
+      <c r="AI27" s="104"/>
+      <c r="AJ27" s="104"/>
+      <c r="AK27" s="105"/>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="89"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="104"/>
+      <c r="AF28" s="104"/>
+      <c r="AG28" s="104"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="104"/>
+      <c r="AJ28" s="104"/>
+      <c r="AK28" s="105"/>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="89"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="104"/>
+      <c r="AF29" s="104"/>
+      <c r="AG29" s="104"/>
+      <c r="AH29" s="104"/>
+      <c r="AI29" s="104"/>
+      <c r="AJ29" s="104"/>
+      <c r="AK29" s="105"/>
+    </row>
+    <row r="30" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A30" s="106"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="109"/>
+      <c r="AF30" s="109"/>
+      <c r="AG30" s="109"/>
+      <c r="AH30" s="109"/>
+      <c r="AI30" s="109"/>
+      <c r="AJ30" s="109"/>
+      <c r="AK30" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -11560,11 +11601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="46" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="47" customWidth="1"/>
@@ -11572,100 +11611,100 @@
     <col min="6" max="16384" width="9.77734375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="104" customFormat="1" ht="11.4" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" s="105" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-    </row>
-    <row r="3" spans="1:11" s="105" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B3" s="108" t="s">
+    <row r="1" spans="1:11" s="48" customFormat="1" ht="11.4"/>
+    <row r="2" spans="1:11" s="49" customFormat="1" ht="14.4">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" s="49" customFormat="1" ht="18.600000000000001">
+      <c r="B3" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="49" customFormat="1" ht="14.4">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" s="49" customFormat="1" ht="16.2">
+      <c r="B5" s="53" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="105" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-    </row>
-    <row r="5" spans="1:11" s="105" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="109" t="s">
+    <row r="6" spans="1:11" s="49" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="36" customFormat="1" ht="14.4">
+      <c r="A7" s="49"/>
+      <c r="B7" s="33" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="105" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:11" s="36" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="105"/>
-      <c r="B7" s="33" t="s">
+      <c r="C7" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="34" t="s">
+    </row>
+    <row r="8" spans="1:11" s="36" customFormat="1" ht="28.8">
+      <c r="A8" s="49"/>
+      <c r="B8" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="105"/>
-      <c r="B8" s="37" t="s">
+      <c r="D8" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="36" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105"/>
+    </row>
+    <row r="9" spans="1:11" s="36" customFormat="1" thickBot="1">
+      <c r="A9" s="49"/>
       <c r="B9" s="40"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
       <c r="E9" s="42"/>
     </row>
-    <row r="10" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:11" s="45" customFormat="1">
+      <c r="A10" s="54"/>
       <c r="B10" s="43"/>
       <c r="C10" s="44"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
     </row>
-    <row r="11" spans="1:11" s="105" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-    </row>
-    <row r="12" spans="1:11" s="105" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="109" t="s">
+    <row r="11" spans="1:11" s="49" customFormat="1" ht="14.4">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" s="49" customFormat="1" ht="16.2">
+      <c r="B12" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="47" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="47" customFormat="1">
       <c r="A30" s="46"/>
       <c r="B30" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
@@ -11674,10 +11713,10 @@
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
     </row>
-    <row r="31" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="47" customFormat="1">
       <c r="A31" s="46"/>
       <c r="B31" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
@@ -11698,39 +11737,39 @@
   <sheetPr>
     <tabColor rgb="FFFF99CC"/>
   </sheetPr>
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="35.109375" style="3" customWidth="1"/>
     <col min="2" max="16384" width="25.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -11743,9 +11782,9 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A7" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -11756,9 +11795,9 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="s">
-        <v>146</v>
+    <row r="8" spans="1:15" ht="15">
+      <c r="A8" s="56" t="s">
+        <v>145</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -11769,12 +11808,12 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="111" t="s">
+    <row r="10" spans="1:15" ht="15">
+      <c r="A10" s="55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
@@ -11803,7 +11842,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -11832,7 +11871,7 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -11849,8 +11888,8 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="111" t="s">
+    <row r="14" spans="1:15" ht="15">
+      <c r="A14" s="55" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="12"/>
@@ -11868,9 +11907,9 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="111" t="s">
-        <v>148</v>
+    <row r="15" spans="1:15" ht="15">
+      <c r="A15" s="55" t="s">
+        <v>147</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -11887,7 +11926,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15">
       <c r="A16" s="13" t="s">
         <v>17</v>
       </c>
@@ -11928,7 +11967,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
@@ -11959,7 +11998,7 @@
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A18" s="21" t="s">
         <v>32</v>
       </c>
@@ -11994,7 +12033,7 @@
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
     </row>
-    <row r="19" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
@@ -12029,7 +12068,7 @@
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
     </row>
-    <row r="20" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A20" s="22" t="s">
         <v>40</v>
       </c>
@@ -12064,7 +12103,7 @@
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A21" s="21" t="s">
         <v>44</v>
       </c>
@@ -12099,7 +12138,7 @@
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="1:15" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="23" customFormat="1" ht="15">
       <c r="A22" s="21" t="s">
         <v>47</v>
       </c>
@@ -12134,7 +12173,7 @@
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" spans="1:15" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="23" customFormat="1" ht="15">
       <c r="A23" s="22" t="s">
         <v>50</v>
       </c>
@@ -12169,7 +12208,7 @@
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A24" s="21" t="s">
         <v>52</v>
       </c>
@@ -12204,7 +12243,7 @@
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A25" s="21" t="s">
         <v>54</v>
       </c>
@@ -12239,7 +12278,7 @@
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
     </row>
-    <row r="26" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A26" s="21" t="s">
         <v>57</v>
       </c>
@@ -12274,7 +12313,7 @@
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
     </row>
-    <row r="27" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A27" s="21" t="s">
         <v>59</v>
       </c>
@@ -12309,7 +12348,7 @@
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A28" s="22" t="s">
         <v>61</v>
       </c>
@@ -12344,7 +12383,7 @@
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A29" s="21" t="s">
         <v>64</v>
       </c>
@@ -12379,7 +12418,7 @@
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A30" s="22" t="s">
         <v>66</v>
       </c>
@@ -12414,7 +12453,7 @@
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A31" s="22" t="s">
         <v>68</v>
       </c>
@@ -12449,7 +12488,7 @@
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A32" s="21" t="s">
         <v>70</v>
       </c>
@@ -12484,7 +12523,7 @@
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
-    <row r="33" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A33" s="21" t="s">
         <v>72</v>
       </c>
@@ -12519,7 +12558,7 @@
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
     </row>
-    <row r="34" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A34" s="21" t="s">
         <v>74</v>
       </c>
@@ -12554,7 +12593,7 @@
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A35" s="22" t="s">
         <v>77</v>
       </c>
@@ -12589,7 +12628,7 @@
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A36" s="22" t="s">
         <v>80</v>
       </c>
@@ -12624,7 +12663,7 @@
       <c r="N36" s="20"/>
       <c r="O36" s="20"/>
     </row>
-    <row r="37" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A37" s="22" t="s">
         <v>82</v>
       </c>
@@ -12659,7 +12698,7 @@
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
     </row>
-    <row r="38" spans="1:15" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="23" customFormat="1" ht="15">
       <c r="A38" s="22" t="s">
         <v>84</v>
       </c>
@@ -12675,7 +12714,7 @@
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>85</v>
@@ -12694,7 +12733,7 @@
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
     </row>
-    <row r="39" spans="1:15" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="23" customFormat="1" ht="15">
       <c r="A39" s="22" t="s">
         <v>86</v>
       </c>
@@ -12725,7 +12764,7 @@
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
     </row>
-    <row r="40" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A40" s="22" t="s">
         <v>89</v>
       </c>
@@ -12756,123 +12795,151 @@
       <c r="N40" s="20"/>
       <c r="O40" s="20"/>
     </row>
-    <row r="41" spans="1:15" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:15" s="23" customFormat="1" ht="15">
+      <c r="A41" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H41" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30" t="s">
+      <c r="F41" s="18"/>
+      <c r="G41" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
       <c r="O41" s="20"/>
     </row>
-    <row r="42" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+    <row r="42" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A42" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30" t="s">
+      <c r="E42" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
     </row>
-    <row r="43" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
+    <row r="43" spans="1:15" s="23" customFormat="1" ht="15">
+      <c r="A43" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
     </row>
-    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-    </row>
-    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-    </row>
-    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+    <row r="44" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A44" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+    </row>
+    <row r="45" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+    </row>
+    <row r="46" spans="1:15" ht="15">
+      <c r="A46" s="55" t="s">
+        <v>148</v>
+      </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -12888,115 +12955,103 @@
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
     </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:15" ht="15">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="1:15" ht="15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:15" ht="15">
+      <c r="A49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A50" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A51" s="111" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" ht="15">
+      <c r="A51" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="53" spans="1:15" ht="15">
+      <c r="A53" s="55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+    <row r="54" spans="1:15" ht="15">
+      <c r="A54" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B54" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E54" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F54" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-    </row>
-    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-    </row>
-    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -13007,15 +13062,25 @@
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+    <row r="55" spans="1:15" ht="15">
+      <c r="A55" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -13026,10 +13091,8 @@
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A56" s="111" t="s">
-        <v>148</v>
-      </c>
+    <row r="56" spans="1:15" ht="15">
+      <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -13045,34 +13108,18 @@
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>96</v>
-      </c>
+    <row r="57" spans="1:15" ht="15">
+      <c r="A57" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
@@ -13080,86 +13127,82 @@
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:15" ht="15">
+      <c r="A58" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+    </row>
+    <row r="59" spans="1:15" ht="15">
+      <c r="A59" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+    </row>
+    <row r="60" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A60" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I58" s="17"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-    </row>
-    <row r="59" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" s="17"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-    </row>
-    <row r="60" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="16"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I60" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="I60" s="17"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
@@ -13167,28 +13210,28 @@
       <c r="N60" s="20"/>
       <c r="O60" s="20"/>
     </row>
-    <row r="61" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>40</v>
+    <row r="61" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A61" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="16"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I61" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="I61" s="17"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -13196,28 +13239,28 @@
       <c r="N61" s="20"/>
       <c r="O61" s="20"/>
     </row>
-    <row r="62" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A62" s="21" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="17"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="I62" s="16"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
@@ -13225,9 +13268,9 @@
       <c r="N62" s="20"/>
       <c r="O62" s="20"/>
     </row>
-    <row r="63" spans="1:15" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
-        <v>47</v>
+    <row r="63" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A63" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>28</v>
@@ -13237,14 +13280,14 @@
         <v>33</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="20"/>
@@ -13254,26 +13297,26 @@
       <c r="N63" s="20"/>
       <c r="O63" s="20"/>
     </row>
-    <row r="64" spans="1:15" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
-        <v>50</v>
+    <row r="64" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A64" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="20"/>
@@ -13283,28 +13326,28 @@
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
     </row>
-    <row r="65" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" s="23" customFormat="1" ht="15">
       <c r="A65" s="21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="17"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="16" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I65" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="I65" s="16"/>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
       <c r="L65" s="20"/>
@@ -13312,26 +13355,26 @@
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
     </row>
-    <row r="66" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
-        <v>54</v>
+    <row r="66" spans="1:15" s="23" customFormat="1" ht="15">
+      <c r="A66" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="20"/>
@@ -13341,28 +13384,28 @@
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
     </row>
-    <row r="67" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A67" s="21" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="16"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="16" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I67" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="I67" s="17"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
@@ -13370,28 +13413,28 @@
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
     </row>
-    <row r="68" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A68" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="16"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I68" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="I68" s="17"/>
       <c r="J68" s="20"/>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
@@ -13399,28 +13442,28 @@
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
     </row>
-    <row r="69" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A69" s="22" t="s">
-        <v>61</v>
+    <row r="69" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A69" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="17"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I69" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="I69" s="16"/>
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
@@ -13428,9 +13471,9 @@
       <c r="N69" s="20"/>
       <c r="O69" s="20"/>
     </row>
-    <row r="70" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A70" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>28</v>
@@ -13440,14 +13483,14 @@
         <v>41</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I70" s="16"/>
       <c r="J70" s="20"/>
@@ -13457,28 +13500,28 @@
       <c r="N70" s="20"/>
       <c r="O70" s="20"/>
     </row>
-    <row r="71" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A71" s="22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="16"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="16" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I71" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="I71" s="17"/>
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
@@ -13486,26 +13529,26 @@
       <c r="N71" s="20"/>
       <c r="O71" s="20"/>
     </row>
-    <row r="72" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
-        <v>68</v>
+    <row r="72" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A72" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I72" s="16"/>
       <c r="J72" s="20"/>
@@ -13515,9 +13558,9 @@
       <c r="N72" s="20"/>
       <c r="O72" s="20"/>
     </row>
-    <row r="73" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A73" s="21" t="s">
-        <v>70</v>
+    <row r="73" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A73" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>28</v>
@@ -13527,14 +13570,14 @@
         <v>102</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="20"/>
@@ -13544,26 +13587,26 @@
       <c r="N73" s="20"/>
       <c r="O73" s="20"/>
     </row>
-    <row r="74" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A74" s="21" t="s">
-        <v>72</v>
+    <row r="74" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A74" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I74" s="16"/>
       <c r="J74" s="20"/>
@@ -13573,26 +13616,26 @@
       <c r="N74" s="20"/>
       <c r="O74" s="20"/>
     </row>
-    <row r="75" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A75" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I75" s="16"/>
       <c r="J75" s="20"/>
@@ -13602,26 +13645,26 @@
       <c r="N75" s="20"/>
       <c r="O75" s="20"/>
     </row>
-    <row r="76" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
-        <v>77</v>
+    <row r="76" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A76" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I76" s="16"/>
       <c r="J76" s="20"/>
@@ -13631,9 +13674,9 @@
       <c r="N76" s="20"/>
       <c r="O76" s="20"/>
     </row>
-    <row r="77" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
-        <v>80</v>
+    <row r="77" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A77" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>28</v>
@@ -13643,14 +13686,14 @@
         <v>33</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I77" s="16"/>
       <c r="J77" s="20"/>
@@ -13660,9 +13703,9 @@
       <c r="N77" s="20"/>
       <c r="O77" s="20"/>
     </row>
-    <row r="78" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A78" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>28</v>
@@ -13672,14 +13715,14 @@
         <v>33</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I78" s="16"/>
       <c r="J78" s="20"/>
@@ -13689,26 +13732,26 @@
       <c r="N78" s="20"/>
       <c r="O78" s="20"/>
     </row>
-    <row r="79" spans="1:15" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A79" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I79" s="16"/>
       <c r="J79" s="20"/>
@@ -13718,9 +13761,9 @@
       <c r="N79" s="20"/>
       <c r="O79" s="20"/>
     </row>
-    <row r="80" spans="1:15" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A80" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>28</v>
@@ -13730,14 +13773,14 @@
         <v>33</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="20"/>
@@ -13747,26 +13790,26 @@
       <c r="N80" s="20"/>
       <c r="O80" s="20"/>
     </row>
-    <row r="81" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" s="23" customFormat="1" ht="15">
       <c r="A81" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="20"/>
@@ -13776,15 +13819,27 @@
       <c r="N81" s="20"/>
       <c r="O81" s="20"/>
     </row>
-    <row r="82" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
+    <row r="82" spans="1:15" s="23" customFormat="1" ht="15">
+      <c r="A82" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
+      <c r="D82" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="I82" s="16"/>
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
@@ -13793,134 +13848,134 @@
       <c r="N82" s="20"/>
       <c r="O82" s="20"/>
     </row>
-    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A83" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-    </row>
-    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    <row r="83" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A83" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="16"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+    </row>
+    <row r="84" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+    </row>
+    <row r="85" spans="1:15" ht="15">
+      <c r="A85" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+    </row>
+    <row r="88" spans="1:15" ht="15">
+      <c r="A88" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="87" spans="1:15" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="1:15" s="10" customFormat="1" ht="15">
+      <c r="A89" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="90" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A90" s="111" t="s">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:15" ht="15">
+      <c r="A90" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="92" spans="1:15" ht="15">
+      <c r="A92" s="55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
+    <row r="93" spans="1:15" ht="15">
+      <c r="A93" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B93" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D93" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E93" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F93" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-    </row>
-    <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-    </row>
-    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -13931,15 +13986,25 @@
       <c r="N93" s="12"/>
       <c r="O93" s="12"/>
     </row>
-    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A94" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
+    <row r="94" spans="1:15" ht="15">
+      <c r="A94" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
@@ -13950,10 +14015,8 @@
       <c r="N94" s="12"/>
       <c r="O94" s="12"/>
     </row>
-    <row r="95" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A95" s="111" t="s">
-        <v>148</v>
-      </c>
+    <row r="95" spans="1:15" ht="15">
+      <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -13969,34 +14032,18 @@
       <c r="N95" s="12"/>
       <c r="O95" s="12"/>
     </row>
-    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A96" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I96" s="25" t="s">
-        <v>113</v>
-      </c>
+    <row r="96" spans="1:15" ht="15">
+      <c r="A96" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
@@ -14004,86 +14051,82 @@
       <c r="N96" s="12"/>
       <c r="O96" s="12"/>
     </row>
-    <row r="97" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
+    <row r="97" spans="1:15" ht="15">
+      <c r="A97" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+    </row>
+    <row r="98" spans="1:15" ht="15">
+      <c r="A98" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+    </row>
+    <row r="99" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A99" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F97" s="18"/>
-      <c r="G97" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H97" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I97" s="17"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-    </row>
-    <row r="98" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A98" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F98" s="18"/>
-      <c r="G98" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H98" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I98" s="17"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-    </row>
-    <row r="99" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A99" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="16"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I99" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="I99" s="17"/>
       <c r="J99" s="16"/>
       <c r="K99" s="16"/>
       <c r="L99" s="16"/>
@@ -14091,28 +14134,28 @@
       <c r="N99" s="16"/>
       <c r="O99" s="16"/>
     </row>
-    <row r="100" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A100" s="22" t="s">
-        <v>40</v>
+    <row r="100" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A100" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="B100" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="16"/>
+      <c r="C100" s="17"/>
       <c r="D100" s="16" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I100" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="I100" s="17"/>
       <c r="J100" s="16"/>
       <c r="K100" s="16"/>
       <c r="L100" s="16"/>
@@ -14120,28 +14163,28 @@
       <c r="N100" s="16"/>
       <c r="O100" s="16"/>
     </row>
-    <row r="101" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" s="26" customFormat="1" ht="15">
       <c r="A101" s="21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="17"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I101" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="I101" s="16"/>
       <c r="J101" s="16"/>
       <c r="K101" s="16"/>
       <c r="L101" s="16"/>
@@ -14149,26 +14192,26 @@
       <c r="N101" s="16"/>
       <c r="O101" s="16"/>
     </row>
-    <row r="102" spans="1:15" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A102" s="21" t="s">
-        <v>47</v>
+    <row r="102" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A102" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I102" s="16"/>
       <c r="J102" s="16"/>
@@ -14178,9 +14221,9 @@
       <c r="N102" s="16"/>
       <c r="O102" s="16"/>
     </row>
-    <row r="103" spans="1:15" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
-        <v>50</v>
+    <row r="103" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A103" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>28</v>
@@ -14190,14 +14233,14 @@
         <v>33</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="16"/>
@@ -14207,28 +14250,28 @@
       <c r="N103" s="16"/>
       <c r="O103" s="16"/>
     </row>
-    <row r="104" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" s="27" customFormat="1" ht="15">
       <c r="A104" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I104" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="I104" s="16"/>
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
       <c r="L104" s="16"/>
@@ -14236,9 +14279,9 @@
       <c r="N104" s="16"/>
       <c r="O104" s="16"/>
     </row>
-    <row r="105" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A105" s="21" t="s">
-        <v>116</v>
+    <row r="105" spans="1:15" s="27" customFormat="1" ht="15">
+      <c r="A105" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>28</v>
@@ -14248,14 +14291,14 @@
         <v>33</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="16"/>
@@ -14265,28 +14308,28 @@
       <c r="N105" s="16"/>
       <c r="O105" s="16"/>
     </row>
-    <row r="106" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" s="26" customFormat="1" ht="15">
       <c r="A106" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="16"/>
+      <c r="C106" s="17"/>
       <c r="D106" s="16" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I106" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="I106" s="17"/>
       <c r="J106" s="16"/>
       <c r="K106" s="16"/>
       <c r="L106" s="16"/>
@@ -14294,28 +14337,28 @@
       <c r="N106" s="16"/>
       <c r="O106" s="16"/>
     </row>
-    <row r="107" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" s="26" customFormat="1" ht="15">
       <c r="A107" s="21" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="16"/>
+      <c r="C107" s="17"/>
       <c r="D107" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I107" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="I107" s="17"/>
       <c r="J107" s="16"/>
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
@@ -14323,28 +14366,28 @@
       <c r="N107" s="16"/>
       <c r="O107" s="16"/>
     </row>
-    <row r="108" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A108" s="22" t="s">
-        <v>61</v>
+    <row r="108" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A108" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C108" s="17"/>
+      <c r="C108" s="16"/>
       <c r="D108" s="16" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I108" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="I108" s="16"/>
       <c r="J108" s="16"/>
       <c r="K108" s="16"/>
       <c r="L108" s="16"/>
@@ -14352,26 +14395,26 @@
       <c r="N108" s="16"/>
       <c r="O108" s="16"/>
     </row>
-    <row r="109" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" s="26" customFormat="1" ht="15">
       <c r="A109" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I109" s="16"/>
       <c r="J109" s="16"/>
@@ -14381,28 +14424,28 @@
       <c r="N109" s="16"/>
       <c r="O109" s="16"/>
     </row>
-    <row r="110" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" s="26" customFormat="1" ht="15">
       <c r="A110" s="22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C110" s="16"/>
+      <c r="C110" s="17"/>
       <c r="D110" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I110" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="I110" s="17"/>
       <c r="J110" s="16"/>
       <c r="K110" s="16"/>
       <c r="L110" s="16"/>
@@ -14410,26 +14453,26 @@
       <c r="N110" s="16"/>
       <c r="O110" s="16"/>
     </row>
-    <row r="111" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
-        <v>68</v>
+    <row r="111" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A111" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I111" s="16"/>
       <c r="J111" s="16"/>
@@ -14439,9 +14482,9 @@
       <c r="N111" s="16"/>
       <c r="O111" s="16"/>
     </row>
-    <row r="112" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A112" s="21" t="s">
-        <v>70</v>
+    <row r="112" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A112" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="B112" s="16" t="s">
         <v>28</v>
@@ -14451,14 +14494,14 @@
         <v>33</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I112" s="16"/>
       <c r="J112" s="16"/>
@@ -14468,26 +14511,26 @@
       <c r="N112" s="16"/>
       <c r="O112" s="16"/>
     </row>
-    <row r="113" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A113" s="21" t="s">
-        <v>72</v>
+    <row r="113" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A113" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I113" s="16"/>
       <c r="J113" s="16"/>
@@ -14497,9 +14540,9 @@
       <c r="N113" s="16"/>
       <c r="O113" s="16"/>
     </row>
-    <row r="114" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" s="26" customFormat="1" ht="15">
       <c r="A114" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>28</v>
@@ -14513,10 +14556,10 @@
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I114" s="16"/>
       <c r="J114" s="16"/>
@@ -14526,26 +14569,26 @@
       <c r="N114" s="16"/>
       <c r="O114" s="16"/>
     </row>
-    <row r="115" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
-        <v>77</v>
+    <row r="115" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A115" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="16" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I115" s="16"/>
       <c r="J115" s="16"/>
@@ -14555,9 +14598,9 @@
       <c r="N115" s="16"/>
       <c r="O115" s="16"/>
     </row>
-    <row r="116" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A116" s="22" t="s">
-        <v>80</v>
+    <row r="116" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A116" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="B116" s="16" t="s">
         <v>28</v>
@@ -14567,14 +14610,14 @@
         <v>33</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I116" s="16"/>
       <c r="J116" s="16"/>
@@ -14584,26 +14627,26 @@
       <c r="N116" s="16"/>
       <c r="O116" s="16"/>
     </row>
-    <row r="117" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" s="26" customFormat="1" ht="15">
       <c r="A117" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="16" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E117" s="18" t="s">
         <v>78</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I117" s="16"/>
       <c r="J117" s="16"/>
@@ -14613,26 +14656,26 @@
       <c r="N117" s="16"/>
       <c r="O117" s="16"/>
     </row>
-    <row r="118" spans="1:15" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" s="26" customFormat="1" ht="15">
       <c r="A118" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B118" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F118" s="18"/>
       <c r="G118" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I118" s="16"/>
       <c r="J118" s="16"/>
@@ -14642,26 +14685,26 @@
       <c r="N118" s="16"/>
       <c r="O118" s="16"/>
     </row>
-    <row r="119" spans="1:15" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" s="26" customFormat="1" ht="15">
       <c r="A119" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B119" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F119" s="18"/>
       <c r="G119" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I119" s="16"/>
       <c r="J119" s="16"/>
@@ -14671,9 +14714,9 @@
       <c r="N119" s="16"/>
       <c r="O119" s="16"/>
     </row>
-    <row r="120" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" s="27" customFormat="1" ht="15">
       <c r="A120" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B120" s="16" t="s">
         <v>28</v>
@@ -14683,14 +14726,14 @@
         <v>102</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F120" s="18"/>
       <c r="G120" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I120" s="16"/>
       <c r="J120" s="16"/>
@@ -14700,15 +14743,27 @@
       <c r="N120" s="16"/>
       <c r="O120" s="16"/>
     </row>
-    <row r="121" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
+    <row r="121" spans="1:15" s="27" customFormat="1" ht="15">
+      <c r="A121" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
+      <c r="D121" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F121" s="18"/>
+      <c r="G121" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="I121" s="16"/>
       <c r="J121" s="16"/>
       <c r="K121" s="16"/>
@@ -14717,24 +14772,70 @@
       <c r="N121" s="16"/>
       <c r="O121" s="16"/>
     </row>
-    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A122" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
-      <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="12"/>
+    <row r="122" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A122" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F122" s="18"/>
+      <c r="G122" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+    </row>
+    <row r="123" spans="1:15" s="26" customFormat="1" ht="15">
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="16"/>
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
+    </row>
+    <row r="124" spans="1:15" ht="15">
+      <c r="A124" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
